--- a/document/osbulkparts/note/测试问题一览表.xlsx
+++ b/document/osbulkparts/note/测试问题一览表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
   <si>
     <t>编号</t>
   </si>
@@ -45,21 +45,24 @@
     <t>列表页面表头加粗，颜色为黑色，宽度适中不要折行</t>
   </si>
   <si>
+    <t>完成</t>
+  </si>
+  <si>
+    <t>物料数据信息</t>
+  </si>
+  <si>
+    <t>物料号，物料描述显示全部，不要隐藏</t>
+  </si>
+  <si>
+    <t>全部显示不现实，内容字太多，会影响其他字段，已经加了trip，鼠标放上后会显示全部。</t>
+  </si>
+  <si>
+    <t>列表页面，每列以竖线分隔，可拖放宽度</t>
+  </si>
+  <si>
     <t>提出</t>
   </si>
   <si>
-    <t>物料数据信息</t>
-  </si>
-  <si>
-    <t>物料号，物料描述显示全部，不要隐藏</t>
-  </si>
-  <si>
-    <t>全部显示不现实，内容字太多，会影响其他字段，已经加了trip，鼠标放上后会显示全部。</t>
-  </si>
-  <si>
-    <t>列表页面，每列以竖线分隔，可拖放宽度</t>
-  </si>
-  <si>
     <t>供应商信息</t>
   </si>
   <si>
@@ -81,10 +84,13 @@
     <t>添加/编辑订单详情时，订单号，订单描述，订单数量非必须项，如果用户输入会自动带出订单描述即可。</t>
   </si>
   <si>
+    <t>如果不必须时，添加的订单详细中，订单号是空</t>
+  </si>
+  <si>
     <t>添加/编辑页面，订单型号删除</t>
   </si>
   <si>
-    <t>删除订单型号，订单计划和订单详情如何去匹配？</t>
+    <t>同上</t>
   </si>
   <si>
     <t>全部列表页面去掉固定列，重要信息放前面</t>
@@ -102,19 +108,31 @@
     <t>数据库原因</t>
   </si>
   <si>
-    <t>完成</t>
-  </si>
-  <si>
     <t>角色信息</t>
   </si>
   <si>
     <t>权限未精确至按钮</t>
   </si>
   <si>
-    <t>已经精确至按钮，按钮前加了页面描述</t>
-  </si>
-  <si>
     <t>全部按钮加粗加黑，并添加背景色</t>
+  </si>
+  <si>
+    <t>物料号长度没有进行限制</t>
+  </si>
+  <si>
+    <t>根据时间查询时，时间范围传入为20190701120000，修改为20190701000000</t>
+  </si>
+  <si>
+    <t>库存数量不需要作为查询条件</t>
+  </si>
+  <si>
+    <t>导入完成后关闭导入画面，自动执行查询处理</t>
+  </si>
+  <si>
+    <t>数据字典</t>
+  </si>
+  <si>
+    <t>字典分类不需要添加，字典数据需要添加</t>
   </si>
 </sst>
 </file>
@@ -127,7 +145,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,6 +164,13 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -634,152 +659,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -802,6 +827,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1155,7 +1192,7 @@
   <dimension ref="A2:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1245,7 +1282,7 @@
         <v>43647</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G5" s="3"/>
     </row>
@@ -1254,10 +1291,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="7">
@@ -1273,17 +1310,17 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="7">
         <v>43647</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G7" s="3"/>
     </row>
@@ -1292,59 +1329,61 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="7">
         <v>43647</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G8" s="3"/>
     </row>
     <row r="9" ht="22.5" spans="1:7">
-      <c r="A9" s="3">
+      <c r="A9" s="8">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="7">
-        <v>43647</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" ht="22.5" spans="1:7">
-      <c r="A10" s="3">
+      <c r="C9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="11">
+        <v>43647</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="8">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="7">
-        <v>43647</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="3"/>
+      <c r="C10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="11">
+        <v>43647</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="3">
@@ -1354,14 +1393,14 @@
         <v>7</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="7">
         <v>43647</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G11" s="3"/>
     </row>
@@ -1370,17 +1409,17 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="7">
         <v>43647</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G12" s="3"/>
     </row>
@@ -1389,42 +1428,40 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E13" s="7">
         <v>43647</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="G13" s="7">
         <v>43647</v>
       </c>
     </row>
-    <row r="14" ht="22.5" spans="1:7">
+    <row r="14" spans="1:7">
       <c r="A14" s="3">
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="6" t="s">
         <v>31</v>
       </c>
+      <c r="D14" s="6"/>
       <c r="E14" s="7">
         <v>43647</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G14" s="3"/>
     </row>
@@ -1439,53 +1476,107 @@
         <v>32</v>
       </c>
       <c r="D15" s="6"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="E15" s="7">
+        <v>43647</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="6"/>
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="D16" s="6"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="E16" s="7">
+        <v>43647</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="6"/>
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="E17" s="7">
+        <v>43647</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="6"/>
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="D18" s="6"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="E18" s="7">
+        <v>43647</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="6"/>
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="D19" s="6"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="E19" s="7">
+        <v>43647</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="6"/>
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="D20" s="6"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="E20" s="7">
+        <v>43647</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7">
@@ -1544,10 +1635,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B6 B7:B8 B9:B26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B6 B7:B8 B9:B15 B16:B17 B18:B26">
       <formula1>"全部,用户信息,角色信息,数据字典,物料数据信息,供应商信息,订单计划,订单详细信息,库存信息"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F13 F14:F20">
       <formula1>"提出,完成"</formula1>
     </dataValidation>
   </dataValidations>

--- a/document/osbulkparts/note/测试问题一览表.xlsx
+++ b/document/osbulkparts/note/测试问题一览表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19935" windowHeight="7785"/>
+    <workbookView windowWidth="28800" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
   <si>
     <t>编号</t>
   </si>
@@ -60,31 +60,31 @@
     <t>列表页面，每列以竖线分隔，可拖放宽度</t>
   </si>
   <si>
+    <t>供应商信息</t>
+  </si>
+  <si>
+    <t>添加/编辑页面追加[配额]字段</t>
+  </si>
+  <si>
+    <t>订单计划</t>
+  </si>
+  <si>
+    <t>添加/编辑订单计划时，不显示[计划状态]，在导入和生成时后台自动处理</t>
+  </si>
+  <si>
+    <t>订单计划的列表中，订单号加超链接</t>
+  </si>
+  <si>
+    <t>订单详细信息</t>
+  </si>
+  <si>
+    <t>添加/编辑订单详情时，订单号，订单描述，订单数量非必须项，如果用户输入会自动带出订单描述即可。</t>
+  </si>
+  <si>
+    <t>如果不必须时，添加的订单详细中，订单号是空</t>
+  </si>
+  <si>
     <t>提出</t>
-  </si>
-  <si>
-    <t>供应商信息</t>
-  </si>
-  <si>
-    <t>添加/编辑页面追加[配额]字段</t>
-  </si>
-  <si>
-    <t>订单计划</t>
-  </si>
-  <si>
-    <t>添加/编辑订单计划时，不显示[计划状态]，在导入和生成时后台自动处理</t>
-  </si>
-  <si>
-    <t>订单计划的列表中，订单号加超链接</t>
-  </si>
-  <si>
-    <t>订单详细信息</t>
-  </si>
-  <si>
-    <t>添加/编辑订单详情时，订单号，订单描述，订单数量非必须项，如果用户输入会自动带出订单描述即可。</t>
-  </si>
-  <si>
-    <t>如果不必须时，添加的订单详细中，订单号是空</t>
   </si>
   <si>
     <t>添加/编辑页面，订单型号删除</t>
@@ -145,7 +145,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,7 +176,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -184,75 +252,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,52 +275,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -321,7 +284,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,13 +341,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,169 +479,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,26 +550,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,8 +577,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,30 +630,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -654,157 +638,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -812,9 +805,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -823,13 +813,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1192,7 +1176,7 @@
   <dimension ref="A2:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1231,41 +1215,45 @@
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7">
+      <c r="D3" s="4"/>
+      <c r="E3" s="5">
         <v>43647</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="3"/>
+      <c r="G3" s="5">
+        <v>43647</v>
+      </c>
     </row>
     <row r="4" ht="33.75" spans="1:7">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="5">
         <v>43647</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="3"/>
+      <c r="G4" s="5">
+        <v>43647</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="3">
@@ -1274,116 +1262,124 @@
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7">
+      <c r="D5" s="4"/>
+      <c r="E5" s="5">
         <v>43647</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="G5" s="5">
+        <v>43647</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="7">
+      <c r="D6" s="4"/>
+      <c r="E6" s="5">
         <v>43647</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="3"/>
+      <c r="G6" s="5">
+        <v>43647</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="7">
+      <c r="D7" s="4"/>
+      <c r="E7" s="5">
         <v>43647</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="G7" s="5">
+        <v>43647</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5">
+        <v>43647</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="5">
+        <v>43647</v>
+      </c>
+    </row>
+    <row r="9" ht="22.5" spans="1:7">
+      <c r="A9" s="6">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="7">
-        <v>43647</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" ht="22.5" spans="1:7">
-      <c r="A9" s="8">
-        <v>7</v>
-      </c>
-      <c r="B9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="D9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="E9" s="8">
+        <v>43647</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="11">
-        <v>43647</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="8"/>
+      <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="8">
+      <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="11">
-        <v>43647</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="8"/>
+      <c r="E10" s="8">
+        <v>43647</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="3">
@@ -1392,36 +1388,40 @@
       <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="7">
+      <c r="D11" s="4"/>
+      <c r="E11" s="5">
         <v>43647</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="G11" s="5">
+        <v>43647</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="3">
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="7">
+      <c r="D12" s="4"/>
+      <c r="E12" s="5">
         <v>43647</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="G12" s="5">
+        <v>43647</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="3">
@@ -1430,19 +1430,19 @@
       <c r="B13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="5">
         <v>43647</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="5">
         <v>43647</v>
       </c>
     </row>
@@ -1453,17 +1453,19 @@
       <c r="B14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="7">
+      <c r="D14" s="4"/>
+      <c r="E14" s="5">
         <v>43647</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="G14" s="5">
+        <v>43647</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="3">
@@ -1472,17 +1474,19 @@
       <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="7">
+      <c r="D15" s="4"/>
+      <c r="E15" s="5">
         <v>43647</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="G15" s="5">
+        <v>43647</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="3">
@@ -1491,15 +1495,15 @@
       <c r="B16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="7">
+      <c r="D16" s="4"/>
+      <c r="E16" s="5">
         <v>43647</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G16" s="3"/>
     </row>
@@ -1510,15 +1514,15 @@
       <c r="B17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="7">
+      <c r="D17" s="4"/>
+      <c r="E17" s="5">
         <v>43647</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G17" s="3"/>
     </row>
@@ -1529,15 +1533,15 @@
       <c r="B18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="7">
+      <c r="D18" s="4"/>
+      <c r="E18" s="5">
         <v>43647</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G18" s="3"/>
     </row>
@@ -1548,15 +1552,15 @@
       <c r="B19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="7">
+      <c r="D19" s="4"/>
+      <c r="E19" s="5">
         <v>43647</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G19" s="3"/>
     </row>
@@ -1567,23 +1571,23 @@
       <c r="B20" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="7">
+      <c r="D20" s="4"/>
+      <c r="E20" s="5">
         <v>43647</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -1591,8 +1595,8 @@
     <row r="22" spans="1:7">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -1600,8 +1604,8 @@
     <row r="23" spans="1:7">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -1609,8 +1613,8 @@
     <row r="24" spans="1:7">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -1618,8 +1622,8 @@
     <row r="25" spans="1:7">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -1627,22 +1631,22 @@
     <row r="26" spans="1:7">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5 F6 F7 F8 F11 F12 F13 F14 F15 F3:F4 F9:F10 F16:F20">
+      <formula1>"提出,完成"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B6 B7:B8 B9:B15 B16:B17 B18:B26">
       <formula1>"全部,用户信息,角色信息,数据字典,物料数据信息,供应商信息,订单计划,订单详细信息,库存信息"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F13 F14:F20">
-      <formula1>"提出,完成"</formula1>
-    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
@@ -1659,7 +1663,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
@@ -1676,7 +1680,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>

--- a/document/osbulkparts/note/测试问题一览表.xlsx
+++ b/document/osbulkparts/note/测试问题一览表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13065"/>
+    <workbookView windowWidth="19935" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="40">
   <si>
     <t>编号</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>字典分类不需要添加，字典数据需要添加</t>
+  </si>
+  <si>
+    <t>物料数据中追加代理商，A代理商进入系统只能看相应的物料数据，海尔/海信用户进入依照设置角色域</t>
   </si>
 </sst>
 </file>
@@ -140,9 +143,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -176,6 +179,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -184,7 +249,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,114 +288,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,187 +344,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,6 +553,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -570,15 +588,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,17 +622,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -638,15 +650,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -655,10 +658,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -667,133 +670,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1175,8 +1178,8 @@
   <sheetPr/>
   <dimension ref="A2:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1583,10 +1586,14 @@
       </c>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" ht="22.5" spans="1:7">
       <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="4"/>
+      <c r="B21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="D21" s="4"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>

--- a/document/osbulkparts/note/测试问题一览表.xlsx
+++ b/document/osbulkparts/note/测试问题一览表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="47">
   <si>
     <t>编号</t>
   </si>
@@ -136,6 +136,28 @@
   </si>
   <si>
     <t>物料数据中追加代理商，A代理商进入系统只能看相应的物料数据，海尔/海信用户进入依照设置角色域</t>
+  </si>
+  <si>
+    <t>条件查询的结束时间传入后台为invalidDate</t>
+  </si>
+  <si>
+    <t>计划平衡表点击link无法进入平衡详细</t>
+  </si>
+  <si>
+    <t>订单计划/订单详细，计划平衡/计划平衡详细 传入属性isBalance</t>
+  </si>
+  <si>
+    <t>计划平衡/计划平衡详细导入时 不乘配额</t>
+  </si>
+  <si>
+    <t>订单计划生成无效</t>
+  </si>
+  <si>
+    <t>添加收发货信息页面，展示发货信息表中所有数据，具体字段参考计划详细，点击确认收货时，弹出提示框，包含收货数量(不可修改)
+确认后，计划详细表中的收货数量更新</t>
+  </si>
+  <si>
+    <t>点击发货按钮时，更新发货表中的发货数量（即本次发货数量），更新计划信息表中的发货数量（累加本次）</t>
   </si>
 </sst>
 </file>
@@ -143,9 +165,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -179,6 +201,126 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -188,123 +330,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -315,13 +344,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -344,25 +366,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,19 +522,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,133 +534,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,6 +575,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -564,30 +595,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,16 +615,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,6 +647,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -658,10 +680,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -670,133 +692,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1176,10 +1198,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:G26"/>
+  <dimension ref="A2:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1464,7 +1486,7 @@
         <v>43647</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="G14" s="5">
         <v>43647</v>
@@ -1587,7 +1609,9 @@
       <c r="G20" s="3"/>
     </row>
     <row r="21" ht="22.5" spans="1:7">
-      <c r="A21" s="3"/>
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
       <c r="B21" s="3" t="s">
         <v>10</v>
       </c>
@@ -1595,61 +1619,153 @@
         <v>39</v>
       </c>
       <c r="D21" s="4"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="E21" s="5">
+        <v>43648</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="4"/>
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="D22" s="4"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="E22" s="5">
+        <v>43648</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="4"/>
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="D23" s="4"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="E23" s="5">
+        <v>43648</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="4"/>
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="D24" s="4"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="E24" s="5">
+        <v>43648</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="4"/>
+      <c r="A25" s="3">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="D25" s="4"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="E25" s="5">
+        <v>43648</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="4"/>
+    <row r="26" s="1" customFormat="1" spans="1:7">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="D26" s="4"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
+      <c r="E26" s="5">
+        <v>43648</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="G26" s="3"/>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="33.75" spans="1:7">
+      <c r="A27" s="3">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="5">
+        <v>43648</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="22.5" spans="1:7">
+      <c r="A28" s="3">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="5">
+        <v>43648</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5 F6 F7 F8 F11 F12 F13 F14 F15 F3:F4 F9:F10 F16:F20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5 F6 F7 F8 F11 F12 F13 F14 F15 F3:F4 F9:F10 F16:F19 F20:F25 F26:F28">
       <formula1>"提出,完成"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B6 B7:B8 B9:B15 B16:B17 B18:B26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25 B26 B3:B6 B7:B8 B9:B15 B16:B17 B18:B24 B27:B28">
       <formula1>"全部,用户信息,角色信息,数据字典,物料数据信息,供应商信息,订单计划,订单详细信息,库存信息"</formula1>
     </dataValidation>
   </dataValidations>

--- a/document/osbulkparts/note/测试问题一览表.xlsx
+++ b/document/osbulkparts/note/测试问题一览表.xlsx
@@ -165,9 +165,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -201,8 +201,122 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,20 +330,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -238,112 +338,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -366,13 +366,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,169 +546,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,38 +578,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,17 +602,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,6 +633,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -680,10 +680,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -692,133 +692,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1201,7 +1201,7 @@
   <dimension ref="A2:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1642,7 +1642,7 @@
         <v>43648</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="G22" s="3"/>
     </row>
@@ -1680,7 +1680,7 @@
         <v>43648</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="G24" s="3"/>
     </row>
@@ -1699,7 +1699,7 @@
         <v>43648</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="G25" s="3"/>
     </row>
@@ -1718,7 +1718,7 @@
         <v>43648</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="G26" s="3"/>
     </row>
@@ -1762,11 +1762,11 @@
     </row>
   </sheetData>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25 B26 B3:B6 B7:B8 B9:B15 B16:B17 B18:B24 B27:B28">
+      <formula1>"全部,用户信息,角色信息,数据字典,物料数据信息,供应商信息,订单计划,订单详细信息,库存信息"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5 F6 F7 F8 F11 F12 F13 F14 F15 F3:F4 F9:F10 F16:F19 F20:F25 F26:F28">
       <formula1>"提出,完成"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25 B26 B3:B6 B7:B8 B9:B15 B16:B17 B18:B24 B27:B28">
-      <formula1>"全部,用户信息,角色信息,数据字典,物料数据信息,供应商信息,订单计划,订单详细信息,库存信息"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/osbulkparts/note/测试问题一览表.xlsx
+++ b/document/osbulkparts/note/测试问题一览表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="56">
   <si>
     <t>编号</t>
   </si>
@@ -158,6 +158,33 @@
   </si>
   <si>
     <t>点击发货按钮时，更新发货表中的发货数量（即本次发货数量），更新计划信息表中的发货数量（累加本次）</t>
+  </si>
+  <si>
+    <t>收货后，订单详情的收货数量修改。</t>
+  </si>
+  <si>
+    <t>订单详情中，选择发货后，单耗数量没减算</t>
+  </si>
+  <si>
+    <t>两条数据时，发货信息中的物料数量变成一样的了</t>
+  </si>
+  <si>
+    <t>增加损耗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">国际化 </t>
+  </si>
+  <si>
+    <t>多用户操作</t>
+  </si>
+  <si>
+    <t>默认高级管理员</t>
+  </si>
+  <si>
+    <t>供应商查看权限</t>
+  </si>
+  <si>
+    <t>目前所有页面及按钮权限追加</t>
   </si>
 </sst>
 </file>
@@ -166,9 +193,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -201,6 +228,120 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -209,67 +350,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,69 +365,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -366,31 +393,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,151 +579,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,15 +608,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -599,10 +623,60 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -625,50 +699,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -680,10 +713,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -692,137 +725,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -848,6 +881,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1198,10 +1240,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:G28"/>
+  <dimension ref="A2:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1760,13 +1802,112 @@
       </c>
       <c r="G28" s="3"/>
     </row>
+    <row r="29" s="1" customFormat="1" spans="1:7">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:7">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="1:7">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="1:7">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="1:7">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="10"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="1:7">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="10"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="1:7">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="10"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+    </row>
+    <row r="36" s="1" customFormat="1" spans="1:7">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="1:7">
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+    </row>
   </sheetData>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5 F6 F7 F8 F11 F12 F13 F14 F15 F3:F4 F9:F10 F16:F19 F20:F25 F26:F28">
+      <formula1>"提出,完成"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25 B26 B3:B6 B7:B8 B9:B15 B16:B17 B18:B24 B27:B28">
       <formula1>"全部,用户信息,角色信息,数据字典,物料数据信息,供应商信息,订单计划,订单详细信息,库存信息"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5 F6 F7 F8 F11 F12 F13 F14 F15 F3:F4 F9:F10 F16:F19 F20:F25 F26:F28">
-      <formula1>"提出,完成"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
